--- a/2020/September/All Details/30.09.2020/MC Bank Statement Sep-2020.xlsx
+++ b/2020/September/All Details/30.09.2020/MC Bank Statement Sep-2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sep 2020" sheetId="7" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="227">
   <si>
     <t>Date</t>
   </si>
@@ -668,9 +668,6 @@
     <t>03.08.2020</t>
   </si>
   <si>
-    <t>Mobile bill DSR</t>
-  </si>
-  <si>
     <t>05.09.2020</t>
   </si>
   <si>
@@ -696,12 +693,6 @@
   </si>
   <si>
     <t>10.9.2020</t>
-  </si>
-  <si>
-    <t>bKash Jafor</t>
-  </si>
-  <si>
-    <t>BL120</t>
   </si>
   <si>
     <t>Mimi Elec Lalpur</t>
@@ -3091,6 +3082,30 @@
     <xf numFmtId="2" fontId="39" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3121,34 +3136,10 @@
     <xf numFmtId="1" fontId="39" fillId="35" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3242,7 +3233,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3254,7 +3245,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3277,14 +3268,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3321,7 +3312,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3333,7 +3324,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3356,14 +3347,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3923,7 +3914,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="35"/>
       <c r="B13" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C13" s="39">
         <v>0</v>
@@ -3942,7 +3933,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="35"/>
       <c r="B14" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C14" s="39">
         <v>2000000</v>
@@ -3961,7 +3952,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="35"/>
       <c r="B15" s="40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="39">
         <v>450000</v>
@@ -3980,7 +3971,7 @@
     <row r="16" spans="1:8">
       <c r="A16" s="35"/>
       <c r="B16" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="39">
         <v>200000</v>
@@ -3999,7 +3990,7 @@
     <row r="17" spans="1:8">
       <c r="A17" s="35"/>
       <c r="B17" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C17" s="39">
         <v>790000</v>
@@ -4018,7 +4009,7 @@
     <row r="18" spans="1:8">
       <c r="A18" s="35"/>
       <c r="B18" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C18" s="39">
         <v>850000</v>
@@ -4037,7 +4028,7 @@
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="35"/>
       <c r="B19" s="40" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C19" s="39">
         <v>0</v>
@@ -4056,7 +4047,7 @@
     <row r="20" spans="1:8">
       <c r="A20" s="35"/>
       <c r="B20" s="40" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C20" s="39">
         <v>2400000</v>
@@ -4075,7 +4066,7 @@
     <row r="21" spans="1:8">
       <c r="A21" s="35"/>
       <c r="B21" s="40" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C21" s="39">
         <v>618000</v>
@@ -4094,7 +4085,7 @@
     <row r="22" spans="1:8">
       <c r="A22" s="35"/>
       <c r="B22" s="40" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C22" s="39">
         <v>840000</v>
@@ -4113,7 +4104,7 @@
     <row r="23" spans="1:8">
       <c r="A23" s="35"/>
       <c r="B23" s="40" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C23" s="39">
         <v>785000</v>
@@ -4132,7 +4123,7 @@
     <row r="24" spans="1:8">
       <c r="A24" s="35"/>
       <c r="B24" s="40" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C24" s="39">
         <v>620000</v>
@@ -4151,7 +4142,7 @@
     <row r="25" spans="1:8">
       <c r="A25" s="35"/>
       <c r="B25" s="40" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C25" s="39">
         <v>0</v>
@@ -4170,7 +4161,7 @@
     <row r="26" spans="1:8">
       <c r="A26" s="35"/>
       <c r="B26" s="40" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C26" s="39">
         <v>1130000</v>
@@ -4189,7 +4180,7 @@
     <row r="27" spans="1:8">
       <c r="A27" s="35"/>
       <c r="B27" s="40" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C27" s="39">
         <v>360000</v>
@@ -4208,7 +4199,7 @@
     <row r="28" spans="1:8">
       <c r="A28" s="35"/>
       <c r="B28" s="40" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C28" s="39">
         <v>660000</v>
@@ -4227,7 +4218,7 @@
     <row r="29" spans="1:8">
       <c r="A29" s="35"/>
       <c r="B29" s="40" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C29" s="39">
         <v>900000</v>
@@ -4246,7 +4237,7 @@
     <row r="30" spans="1:8">
       <c r="A30" s="35"/>
       <c r="B30" s="40" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C30" s="39">
         <v>600000</v>
@@ -4265,7 +4256,7 @@
     <row r="31" spans="1:8">
       <c r="A31" s="35"/>
       <c r="B31" s="40" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C31" s="54">
         <v>22970</v>
@@ -4278,7 +4269,7 @@
         <v>2631844</v>
       </c>
       <c r="F31" s="297" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="35"/>
@@ -4286,7 +4277,7 @@
     <row r="32" spans="1:8">
       <c r="A32" s="35"/>
       <c r="B32" s="40" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C32" s="39">
         <v>1490000</v>
@@ -4305,7 +4296,7 @@
     <row r="33" spans="1:8">
       <c r="A33" s="35"/>
       <c r="B33" s="40" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C33" s="39">
         <v>550000</v>
@@ -4324,7 +4315,7 @@
     <row r="34" spans="1:8">
       <c r="A34" s="35"/>
       <c r="B34" s="40" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C34" s="39">
         <v>540000</v>
@@ -4343,7 +4334,7 @@
     <row r="35" spans="1:8">
       <c r="A35" s="35"/>
       <c r="B35" s="40" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C35" s="39">
         <v>640000</v>
@@ -4948,7 +4939,7 @@
   </sheetPr>
   <dimension ref="A1:AC222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:E23"/>
     </sheetView>
   </sheetViews>
@@ -4977,7 +4968,7 @@
     </row>
     <row r="2" spans="1:29" ht="23.25">
       <c r="A2" s="303" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B2" s="304"/>
       <c r="C2" s="304"/>
@@ -5496,7 +5487,7 @@
     </row>
     <row r="16" spans="1:29" ht="21.75">
       <c r="A16" s="80" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B16" s="100">
         <v>51435</v>
@@ -10656,8 +10647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI246"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10666,7 +10657,7 @@
     <col min="2" max="2" width="14.5703125" style="107" customWidth="1"/>
     <col min="3" max="3" width="14" style="107" customWidth="1"/>
     <col min="4" max="4" width="11" style="107" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="107" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" style="107" hidden="1" customWidth="1"/>
     <col min="7" max="8" width="23.7109375" style="107" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" style="108" customWidth="1"/>
@@ -11167,7 +11158,7 @@
     </row>
     <row r="8" spans="1:61" ht="12.6" customHeight="1">
       <c r="A8" s="119" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8" s="120">
         <v>850210</v>
@@ -11243,7 +11234,7 @@
     </row>
     <row r="9" spans="1:61" ht="12" customHeight="1">
       <c r="A9" s="119" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B9" s="120">
         <v>382520</v>
@@ -11319,7 +11310,7 @@
     </row>
     <row r="10" spans="1:61" ht="12.6" customHeight="1">
       <c r="A10" s="119" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10" s="120">
         <v>240040</v>
@@ -11343,7 +11334,7 @@
         <v>705</v>
       </c>
       <c r="J10" s="118" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K10" s="110"/>
       <c r="L10" s="130"/>
@@ -11399,7 +11390,7 @@
     </row>
     <row r="11" spans="1:61" ht="12.6" customHeight="1">
       <c r="A11" s="119" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B11" s="120">
         <v>808630</v>
@@ -11423,7 +11414,7 @@
         <v>7525</v>
       </c>
       <c r="J11" s="118" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K11" s="110"/>
       <c r="L11" s="132"/>
@@ -11479,7 +11470,7 @@
     </row>
     <row r="12" spans="1:61" ht="12.6" customHeight="1">
       <c r="A12" s="119" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B12" s="120">
         <v>986900</v>
@@ -11503,7 +11494,7 @@
         <v>7345</v>
       </c>
       <c r="J12" s="118" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K12" s="110"/>
       <c r="L12" s="109"/>
@@ -11559,7 +11550,7 @@
     </row>
     <row r="13" spans="1:61" ht="12.6" customHeight="1">
       <c r="A13" s="119" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B13" s="120">
         <v>1155210</v>
@@ -11635,7 +11626,7 @@
     </row>
     <row r="14" spans="1:61" ht="12.6" customHeight="1">
       <c r="A14" s="119" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B14" s="120">
         <v>1371780</v>
@@ -11711,7 +11702,7 @@
     </row>
     <row r="15" spans="1:61" ht="12.6" customHeight="1">
       <c r="A15" s="119" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B15" s="120">
         <v>551970</v>
@@ -11787,7 +11778,7 @@
     </row>
     <row r="16" spans="1:61" ht="12.6" customHeight="1">
       <c r="A16" s="119" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B16" s="120">
         <v>749480</v>
@@ -11863,7 +11854,7 @@
     </row>
     <row r="17" spans="1:61" ht="12.6" customHeight="1">
       <c r="A17" s="119" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B17" s="120">
         <v>864320</v>
@@ -11939,7 +11930,7 @@
     </row>
     <row r="18" spans="1:61" ht="12.6" customHeight="1">
       <c r="A18" s="119" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B18" s="120">
         <v>680700</v>
@@ -12015,7 +12006,7 @@
     </row>
     <row r="19" spans="1:61" ht="12.6" customHeight="1">
       <c r="A19" s="119" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B19" s="120">
         <v>362960</v>
@@ -12091,7 +12082,7 @@
     </row>
     <row r="20" spans="1:61" ht="12.6" customHeight="1">
       <c r="A20" s="119" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B20" s="120">
         <v>882300</v>
@@ -12167,7 +12158,7 @@
     </row>
     <row r="21" spans="1:61" ht="12.6" customHeight="1">
       <c r="A21" s="119" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B21" s="120">
         <v>406630</v>
@@ -12243,7 +12234,7 @@
     </row>
     <row r="22" spans="1:61" ht="12.6" customHeight="1">
       <c r="A22" s="119" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B22" s="120">
         <v>653950</v>
@@ -12319,7 +12310,7 @@
     </row>
     <row r="23" spans="1:61" ht="12.6" customHeight="1">
       <c r="A23" s="119" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B23" s="120">
         <v>853860</v>
@@ -12395,7 +12386,7 @@
     </row>
     <row r="24" spans="1:61" ht="12.6" customHeight="1">
       <c r="A24" s="119" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B24" s="120">
         <v>603760</v>
@@ -12471,7 +12462,7 @@
     </row>
     <row r="25" spans="1:61" ht="12.6" customHeight="1">
       <c r="A25" s="119" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B25" s="120">
         <v>854330</v>
@@ -12547,7 +12538,7 @@
     </row>
     <row r="26" spans="1:61" ht="12.6" customHeight="1">
       <c r="A26" s="119" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B26" s="120">
         <v>688475</v>
@@ -12623,7 +12614,7 @@
     </row>
     <row r="27" spans="1:61" ht="12.6" customHeight="1">
       <c r="A27" s="119" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B27" s="120">
         <v>530130</v>
@@ -12699,7 +12690,7 @@
     </row>
     <row r="28" spans="1:61" ht="12.6" customHeight="1">
       <c r="A28" s="119" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B28" s="120">
         <v>596175</v>
@@ -12775,7 +12766,7 @@
     </row>
     <row r="29" spans="1:61" ht="12.6" customHeight="1">
       <c r="A29" s="119" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B29" s="120">
         <v>680950</v>
@@ -12851,20 +12842,20 @@
     </row>
     <row r="30" spans="1:61" ht="12.6" customHeight="1">
       <c r="A30" s="119" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B30" s="120">
         <v>804345</v>
       </c>
       <c r="C30" s="120">
-        <v>737480</v>
+        <v>741420</v>
       </c>
       <c r="D30" s="120">
         <v>11740</v>
       </c>
       <c r="E30" s="120">
         <f t="shared" si="0"/>
-        <v>749220</v>
+        <v>753160</v>
       </c>
       <c r="F30" s="128"/>
       <c r="G30" s="139"/>
@@ -13075,7 +13066,7 @@
       </c>
       <c r="C33" s="120">
         <f>SUM(C5:C32)</f>
-        <v>18804559</v>
+        <v>18808499</v>
       </c>
       <c r="D33" s="120">
         <f>SUM(D5:D32)</f>
@@ -13083,11 +13074,11 @@
       </c>
       <c r="E33" s="120">
         <f>SUM(E5:E32)</f>
-        <v>18877886</v>
+        <v>18881826</v>
       </c>
       <c r="F33" s="128">
         <f>B33-E33</f>
-        <v>250509</v>
+        <v>246569</v>
       </c>
       <c r="G33" s="142"/>
       <c r="H33" s="150" t="s">
@@ -13363,7 +13354,7 @@
         <v>5930</v>
       </c>
       <c r="D37" s="113" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E37" s="126"/>
       <c r="F37" s="121"/>
@@ -13505,7 +13496,7 @@
         <v>5000</v>
       </c>
       <c r="D39" s="160" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E39" s="125"/>
       <c r="F39" s="121"/>
@@ -13576,7 +13567,7 @@
         <v>7300</v>
       </c>
       <c r="D40" s="160" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E40" s="125"/>
       <c r="F40" s="121"/>
@@ -13647,7 +13638,7 @@
         <v>10000</v>
       </c>
       <c r="D41" s="113" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E41" s="164"/>
       <c r="F41" s="121"/>
@@ -13779,16 +13770,16 @@
     </row>
     <row r="43" spans="1:61" ht="12.6" customHeight="1">
       <c r="A43" s="294" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B43" s="113" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C43" s="120">
         <v>9300</v>
       </c>
       <c r="D43" s="113" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E43" s="126"/>
       <c r="F43" s="321" t="s">
@@ -14121,7 +14112,7 @@
         <v>238485</v>
       </c>
       <c r="D48" s="187" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E48" s="125"/>
       <c r="F48" s="149"/>
@@ -14325,7 +14316,7 @@
         <v>58450</v>
       </c>
       <c r="D51" s="193" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E51" s="125"/>
       <c r="F51" s="117"/>
@@ -14394,7 +14385,7 @@
         <v>187000</v>
       </c>
       <c r="D52" s="185" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E52" s="125"/>
       <c r="F52" s="149"/>
@@ -14463,7 +14454,7 @@
         <v>381715</v>
       </c>
       <c r="D53" s="196" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E53" s="125"/>
       <c r="F53" s="118"/>
@@ -14532,7 +14523,7 @@
         <v>190615</v>
       </c>
       <c r="D54" s="185" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E54" s="125"/>
       <c r="F54" s="149"/>
@@ -14594,14 +14585,14 @@
     </row>
     <row r="55" spans="1:61" ht="12" customHeight="1">
       <c r="A55" s="194" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B55" s="190"/>
       <c r="C55" s="189">
         <v>14000</v>
       </c>
       <c r="D55" s="196" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E55" s="125"/>
       <c r="F55" s="117"/>
@@ -14663,14 +14654,14 @@
     </row>
     <row r="56" spans="1:61" ht="12" customHeight="1">
       <c r="A56" s="192" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B56" s="117"/>
       <c r="C56" s="189">
         <v>4600</v>
       </c>
       <c r="D56" s="193" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E56" s="125"/>
       <c r="F56" s="117"/>
@@ -14732,14 +14723,14 @@
     </row>
     <row r="57" spans="1:61" ht="12" customHeight="1">
       <c r="A57" s="192" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B57" s="117"/>
       <c r="C57" s="189">
         <v>15000</v>
       </c>
       <c r="D57" s="193" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E57" s="125"/>
       <c r="F57" s="117"/>
@@ -14801,14 +14792,14 @@
     </row>
     <row r="58" spans="1:61" ht="12" customHeight="1">
       <c r="A58" s="192" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B58" s="117"/>
       <c r="C58" s="189">
         <v>9600</v>
       </c>
       <c r="D58" s="193" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E58" s="125"/>
       <c r="F58" s="118"/>
@@ -15080,7 +15071,7 @@
         <v>51388</v>
       </c>
       <c r="D62" s="196" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E62" s="134"/>
       <c r="F62" s="309" t="s">
@@ -15239,7 +15230,7 @@
         <v>48710</v>
       </c>
       <c r="D64" s="196" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E64" s="125"/>
       <c r="F64" s="205"/>
@@ -15321,7 +15312,7 @@
         <v>26372</v>
       </c>
       <c r="D65" s="196" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E65" s="125"/>
       <c r="F65" s="201"/>
@@ -15483,7 +15474,7 @@
         <v>20105</v>
       </c>
       <c r="D67" s="196" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E67" s="125"/>
       <c r="F67" s="201"/>
@@ -15645,7 +15636,7 @@
         <v>24006</v>
       </c>
       <c r="D69" s="196" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E69" s="110"/>
       <c r="F69" s="201"/>
@@ -16053,7 +16044,7 @@
         <v>19000</v>
       </c>
       <c r="D74" s="193" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E74" s="126"/>
       <c r="F74" s="208"/>
@@ -16135,7 +16126,7 @@
         <v>6000</v>
       </c>
       <c r="D75" s="193" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E75" s="125"/>
       <c r="F75" s="208"/>
@@ -16444,14 +16435,14 @@
     </row>
     <row r="79" spans="1:61" ht="12.75" customHeight="1">
       <c r="A79" s="192" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B79" s="190"/>
       <c r="C79" s="189">
         <v>26715</v>
       </c>
       <c r="D79" s="190" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E79" s="125"/>
       <c r="F79" s="208"/>
@@ -16684,14 +16675,14 @@
     </row>
     <row r="82" spans="1:61" ht="12.75" customHeight="1">
       <c r="A82" s="192" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B82" s="117"/>
       <c r="C82" s="189">
         <v>11000</v>
       </c>
       <c r="D82" s="193" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E82" s="126"/>
       <c r="F82" s="212"/>
@@ -16851,7 +16842,7 @@
         <v>51435</v>
       </c>
       <c r="D84" s="193" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E84" s="126"/>
       <c r="F84" s="211"/>
@@ -16933,7 +16924,7 @@
         <v>2000</v>
       </c>
       <c r="D85" s="193" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E85" s="126"/>
       <c r="F85" s="211"/>
@@ -17006,14 +16997,14 @@
     </row>
     <row r="86" spans="1:61" ht="12.75" customHeight="1">
       <c r="A86" s="192" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B86" s="117"/>
       <c r="C86" s="189">
         <v>5000</v>
       </c>
       <c r="D86" s="193" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E86" s="126"/>
       <c r="F86" s="208"/>
@@ -17164,14 +17155,14 @@
     </row>
     <row r="88" spans="1:61" ht="12.75" customHeight="1">
       <c r="A88" s="192" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B88" s="117"/>
       <c r="C88" s="189">
         <v>3445</v>
       </c>
       <c r="D88" s="196" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E88" s="125"/>
       <c r="F88" s="201"/>
@@ -17322,14 +17313,14 @@
     </row>
     <row r="90" spans="1:61" ht="12.6" customHeight="1">
       <c r="A90" s="192" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B90" s="117"/>
       <c r="C90" s="189">
         <v>5000</v>
       </c>
       <c r="D90" s="193" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E90" s="125"/>
       <c r="F90" s="208"/>
@@ -17470,16 +17461,16 @@
     </row>
     <row r="92" spans="1:61">
       <c r="A92" s="192" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B92" s="117" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C92" s="189">
         <v>100</v>
       </c>
       <c r="D92" s="193" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F92" s="208"/>
       <c r="G92" s="202" t="s">
@@ -17941,18 +17932,10 @@
       <c r="BI97" s="110"/>
     </row>
     <row r="98" spans="1:61">
-      <c r="A98" s="215" t="s">
-        <v>195</v>
-      </c>
-      <c r="B98" s="216" t="s">
-        <v>196</v>
-      </c>
-      <c r="C98" s="189">
-        <v>1840</v>
-      </c>
-      <c r="D98" s="190" t="s">
-        <v>193</v>
-      </c>
+      <c r="A98" s="215"/>
+      <c r="B98" s="216"/>
+      <c r="C98" s="189"/>
+      <c r="D98" s="190"/>
       <c r="F98" s="212"/>
       <c r="G98" s="206" t="s">
         <v>102</v>
@@ -18019,18 +18002,10 @@
       <c r="BI98" s="110"/>
     </row>
     <row r="99" spans="1:61">
-      <c r="A99" s="215" t="s">
-        <v>185</v>
-      </c>
-      <c r="B99" s="293">
-        <v>44075</v>
-      </c>
-      <c r="C99" s="189">
-        <v>2100</v>
-      </c>
-      <c r="D99" s="190" t="s">
-        <v>188</v>
-      </c>
+      <c r="A99" s="215"/>
+      <c r="B99" s="293"/>
+      <c r="C99" s="189"/>
+      <c r="D99" s="190"/>
       <c r="F99" s="212"/>
       <c r="G99" s="206" t="s">
         <v>104</v>
@@ -18253,7 +18228,7 @@
         <v>4070</v>
       </c>
       <c r="D102" s="190" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F102" s="212"/>
       <c r="G102" s="206" t="s">
@@ -18322,7 +18297,7 @@
     </row>
     <row r="103" spans="1:61">
       <c r="A103" s="215" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B103" s="216"/>
       <c r="C103" s="189">
@@ -18865,7 +18840,7 @@
         <v>24000</v>
       </c>
       <c r="D110" s="190" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F110" s="212"/>
       <c r="G110" s="206" t="s">
@@ -19089,7 +19064,7 @@
       <c r="B113" s="311"/>
       <c r="C113" s="217">
         <f>SUM(C37:C112)</f>
-        <v>2306847</v>
+        <v>2302907</v>
       </c>
       <c r="D113" s="218"/>
       <c r="F113" s="208"/>
@@ -19240,7 +19215,7 @@
       <c r="B115" s="313"/>
       <c r="C115" s="222">
         <f>C113+L136</f>
-        <v>2306847</v>
+        <v>2302907</v>
       </c>
       <c r="D115" s="223"/>
       <c r="F115" s="201"/>
@@ -21878,94 +21853,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="334" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="326"/>
-      <c r="C1" s="326"/>
-      <c r="D1" s="326"/>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
-      <c r="G1" s="326"/>
-      <c r="H1" s="326"/>
-      <c r="I1" s="326"/>
-      <c r="J1" s="326"/>
-      <c r="K1" s="326"/>
-      <c r="L1" s="326"/>
-      <c r="M1" s="326"/>
-      <c r="N1" s="326"/>
-      <c r="O1" s="326"/>
-      <c r="P1" s="326"/>
-      <c r="Q1" s="326"/>
-      <c r="R1" s="326"/>
-      <c r="S1" s="326"/>
+      <c r="B1" s="334"/>
+      <c r="C1" s="334"/>
+      <c r="D1" s="334"/>
+      <c r="E1" s="334"/>
+      <c r="F1" s="334"/>
+      <c r="G1" s="334"/>
+      <c r="H1" s="334"/>
+      <c r="I1" s="334"/>
+      <c r="J1" s="334"/>
+      <c r="K1" s="334"/>
+      <c r="L1" s="334"/>
+      <c r="M1" s="334"/>
+      <c r="N1" s="334"/>
+      <c r="O1" s="334"/>
+      <c r="P1" s="334"/>
+      <c r="Q1" s="334"/>
+      <c r="R1" s="334"/>
+      <c r="S1" s="334"/>
     </row>
     <row r="2" spans="1:26" s="244" customFormat="1" ht="18">
-      <c r="A2" s="327" t="s">
+      <c r="A2" s="335" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="327"/>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="327"/>
-      <c r="I2" s="327"/>
-      <c r="J2" s="327"/>
-      <c r="K2" s="327"/>
-      <c r="L2" s="327"/>
-      <c r="M2" s="327"/>
-      <c r="N2" s="327"/>
-      <c r="O2" s="327"/>
-      <c r="P2" s="327"/>
-      <c r="Q2" s="327"/>
-      <c r="R2" s="327"/>
-      <c r="S2" s="327"/>
+      <c r="B2" s="335"/>
+      <c r="C2" s="335"/>
+      <c r="D2" s="335"/>
+      <c r="E2" s="335"/>
+      <c r="F2" s="335"/>
+      <c r="G2" s="335"/>
+      <c r="H2" s="335"/>
+      <c r="I2" s="335"/>
+      <c r="J2" s="335"/>
+      <c r="K2" s="335"/>
+      <c r="L2" s="335"/>
+      <c r="M2" s="335"/>
+      <c r="N2" s="335"/>
+      <c r="O2" s="335"/>
+      <c r="P2" s="335"/>
+      <c r="Q2" s="335"/>
+      <c r="R2" s="335"/>
+      <c r="S2" s="335"/>
     </row>
     <row r="3" spans="1:26" s="244" customFormat="1">
-      <c r="A3" s="328"/>
-      <c r="B3" s="328"/>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="328"/>
-      <c r="F3" s="328"/>
-      <c r="G3" s="328"/>
-      <c r="H3" s="328"/>
-      <c r="I3" s="328"/>
-      <c r="J3" s="328"/>
-      <c r="K3" s="328"/>
-      <c r="L3" s="328"/>
-      <c r="M3" s="328"/>
-      <c r="N3" s="328"/>
-      <c r="O3" s="328"/>
-      <c r="P3" s="328"/>
-      <c r="Q3" s="328"/>
-      <c r="R3" s="328"/>
-      <c r="S3" s="328"/>
+      <c r="A3" s="336"/>
+      <c r="B3" s="336"/>
+      <c r="C3" s="336"/>
+      <c r="D3" s="336"/>
+      <c r="E3" s="336"/>
+      <c r="F3" s="336"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="336"/>
+      <c r="K3" s="336"/>
+      <c r="L3" s="336"/>
+      <c r="M3" s="336"/>
+      <c r="N3" s="336"/>
+      <c r="O3" s="336"/>
+      <c r="P3" s="336"/>
+      <c r="Q3" s="336"/>
+      <c r="R3" s="336"/>
+      <c r="S3" s="336"/>
     </row>
     <row r="4" spans="1:26" s="245" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A4" s="329" t="s">
+      <c r="A4" s="337" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="330"/>
-      <c r="C4" s="330"/>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
-      <c r="H4" s="330"/>
-      <c r="I4" s="330"/>
-      <c r="J4" s="330"/>
-      <c r="K4" s="330"/>
-      <c r="L4" s="330"/>
-      <c r="M4" s="330"/>
-      <c r="N4" s="330"/>
-      <c r="O4" s="330"/>
-      <c r="P4" s="330"/>
-      <c r="Q4" s="330"/>
-      <c r="R4" s="330"/>
-      <c r="S4" s="331"/>
+      <c r="B4" s="338"/>
+      <c r="C4" s="338"/>
+      <c r="D4" s="338"/>
+      <c r="E4" s="338"/>
+      <c r="F4" s="338"/>
+      <c r="G4" s="338"/>
+      <c r="H4" s="338"/>
+      <c r="I4" s="338"/>
+      <c r="J4" s="338"/>
+      <c r="K4" s="338"/>
+      <c r="L4" s="338"/>
+      <c r="M4" s="338"/>
+      <c r="N4" s="338"/>
+      <c r="O4" s="338"/>
+      <c r="P4" s="338"/>
+      <c r="Q4" s="338"/>
+      <c r="R4" s="338"/>
+      <c r="S4" s="339"/>
       <c r="U4" s="126"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
@@ -21974,58 +21949,58 @@
       <c r="Z4" s="29"/>
     </row>
     <row r="5" spans="1:26" s="247" customFormat="1">
-      <c r="A5" s="332" t="s">
+      <c r="A5" s="340" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="334" t="s">
+      <c r="B5" s="342" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="336" t="s">
+      <c r="C5" s="328" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="336" t="s">
+      <c r="D5" s="328" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="336" t="s">
+      <c r="E5" s="328" t="s">
         <v>166</v>
       </c>
-      <c r="F5" s="336" t="s">
+      <c r="F5" s="328" t="s">
         <v>167</v>
       </c>
-      <c r="G5" s="336" t="s">
+      <c r="G5" s="328" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="336" t="s">
+      <c r="H5" s="328" t="s">
         <v>169</v>
       </c>
-      <c r="I5" s="336" t="s">
+      <c r="I5" s="328" t="s">
         <v>170</v>
       </c>
-      <c r="J5" s="336" t="s">
+      <c r="J5" s="328" t="s">
         <v>171</v>
       </c>
-      <c r="K5" s="336" t="s">
+      <c r="K5" s="328" t="s">
         <v>172</v>
       </c>
-      <c r="L5" s="336" t="s">
+      <c r="L5" s="328" t="s">
         <v>173</v>
       </c>
-      <c r="M5" s="336" t="s">
+      <c r="M5" s="328" t="s">
         <v>174</v>
       </c>
-      <c r="N5" s="336" t="s">
+      <c r="N5" s="328" t="s">
         <v>175</v>
       </c>
-      <c r="O5" s="342" t="s">
+      <c r="O5" s="330" t="s">
         <v>176</v>
       </c>
-      <c r="P5" s="344" t="s">
+      <c r="P5" s="332" t="s">
         <v>177</v>
       </c>
-      <c r="Q5" s="340" t="s">
+      <c r="Q5" s="326" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="338" t="s">
+      <c r="R5" s="344" t="s">
         <v>178</v>
       </c>
       <c r="S5" s="246" t="s">
@@ -22038,24 +22013,24 @@
       <c r="Y5" s="249"/>
     </row>
     <row r="6" spans="1:26" s="247" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A6" s="333"/>
-      <c r="B6" s="335"/>
-      <c r="C6" s="337"/>
-      <c r="D6" s="337"/>
-      <c r="E6" s="337"/>
-      <c r="F6" s="337"/>
-      <c r="G6" s="337"/>
-      <c r="H6" s="337"/>
-      <c r="I6" s="337"/>
-      <c r="J6" s="337"/>
-      <c r="K6" s="337"/>
-      <c r="L6" s="337"/>
-      <c r="M6" s="337"/>
-      <c r="N6" s="337"/>
-      <c r="O6" s="343"/>
-      <c r="P6" s="345"/>
-      <c r="Q6" s="341"/>
-      <c r="R6" s="339"/>
+      <c r="A6" s="341"/>
+      <c r="B6" s="343"/>
+      <c r="C6" s="329"/>
+      <c r="D6" s="329"/>
+      <c r="E6" s="329"/>
+      <c r="F6" s="329"/>
+      <c r="G6" s="329"/>
+      <c r="H6" s="329"/>
+      <c r="I6" s="329"/>
+      <c r="J6" s="329"/>
+      <c r="K6" s="329"/>
+      <c r="L6" s="329"/>
+      <c r="M6" s="329"/>
+      <c r="N6" s="329"/>
+      <c r="O6" s="331"/>
+      <c r="P6" s="333"/>
+      <c r="Q6" s="327"/>
+      <c r="R6" s="345"/>
       <c r="S6" s="251" t="s">
         <v>179</v>
       </c>
@@ -22202,7 +22177,7 @@
     </row>
     <row r="10" spans="1:26" s="22" customFormat="1">
       <c r="A10" s="255" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10" s="263">
         <v>800</v>
@@ -22244,7 +22219,7 @@
     </row>
     <row r="11" spans="1:26" s="22" customFormat="1">
       <c r="A11" s="255" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B11" s="263">
         <v>500</v>
@@ -22286,7 +22261,7 @@
     </row>
     <row r="12" spans="1:26" s="22" customFormat="1">
       <c r="A12" s="255" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B12" s="263">
         <v>500</v>
@@ -22328,7 +22303,7 @@
     </row>
     <row r="13" spans="1:26" s="22" customFormat="1">
       <c r="A13" s="255" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B13" s="263">
         <v>500</v>
@@ -22374,7 +22349,7 @@
     </row>
     <row r="14" spans="1:26" s="22" customFormat="1">
       <c r="A14" s="255" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B14" s="263">
         <v>600</v>
@@ -22420,7 +22395,7 @@
     </row>
     <row r="15" spans="1:26" s="22" customFormat="1">
       <c r="A15" s="255" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B15" s="263">
         <v>1200</v>
@@ -22466,7 +22441,7 @@
     </row>
     <row r="16" spans="1:26" s="22" customFormat="1">
       <c r="A16" s="255" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B16" s="263">
         <v>1000</v>
@@ -22510,7 +22485,7 @@
     </row>
     <row r="17" spans="1:25" s="22" customFormat="1">
       <c r="A17" s="255" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B17" s="263">
         <v>700</v>
@@ -22554,7 +22529,7 @@
     </row>
     <row r="18" spans="1:25" s="22" customFormat="1">
       <c r="A18" s="255" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B18" s="263">
         <v>1150</v>
@@ -22598,7 +22573,7 @@
     </row>
     <row r="19" spans="1:25" s="22" customFormat="1">
       <c r="A19" s="255" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B19" s="263">
         <v>1900</v>
@@ -22644,7 +22619,7 @@
     </row>
     <row r="20" spans="1:25" s="22" customFormat="1">
       <c r="A20" s="255" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B20" s="263">
         <v>200</v>
@@ -22688,7 +22663,7 @@
     </row>
     <row r="21" spans="1:25" s="22" customFormat="1">
       <c r="A21" s="255" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B21" s="263">
         <v>1200</v>
@@ -22734,7 +22709,7 @@
     </row>
     <row r="22" spans="1:25" s="22" customFormat="1">
       <c r="A22" s="255" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B22" s="263">
         <v>1200</v>
@@ -22774,7 +22749,7 @@
     </row>
     <row r="23" spans="1:25" s="22" customFormat="1">
       <c r="A23" s="255" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B23" s="263">
         <v>800</v>
@@ -22812,7 +22787,7 @@
     </row>
     <row r="24" spans="1:25" s="271" customFormat="1">
       <c r="A24" s="255" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B24" s="263">
         <v>700</v>
@@ -22856,7 +22831,7 @@
     </row>
     <row r="25" spans="1:25" s="22" customFormat="1">
       <c r="A25" s="255" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B25" s="263">
         <v>700</v>
@@ -22901,7 +22876,7 @@
     </row>
     <row r="26" spans="1:25" s="271" customFormat="1">
       <c r="A26" s="255" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B26" s="263">
         <v>1100</v>
@@ -22943,7 +22918,7 @@
     </row>
     <row r="27" spans="1:25" s="22" customFormat="1">
       <c r="A27" s="255" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B27" s="263">
         <v>1000</v>
@@ -22981,7 +22956,7 @@
     </row>
     <row r="28" spans="1:25" s="22" customFormat="1">
       <c r="A28" s="255" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B28" s="263">
         <v>1500</v>
@@ -23019,7 +22994,7 @@
     </row>
     <row r="29" spans="1:25" s="22" customFormat="1">
       <c r="A29" s="255" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B29" s="263">
         <v>600</v>
@@ -23063,7 +23038,7 @@
     </row>
     <row r="30" spans="1:25" s="22" customFormat="1">
       <c r="A30" s="255" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B30" s="263">
         <v>1000</v>
@@ -23105,7 +23080,7 @@
     </row>
     <row r="31" spans="1:25" s="22" customFormat="1">
       <c r="A31" s="255" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B31" s="263">
         <v>800</v>
@@ -23153,13 +23128,13 @@
     </row>
     <row r="32" spans="1:25" s="22" customFormat="1">
       <c r="A32" s="255" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B32" s="263">
         <v>1000</v>
       </c>
       <c r="C32" s="256" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D32" s="264"/>
       <c r="E32" s="264"/>
@@ -25393,12 +25368,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -25415,6 +25384,12 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/2020/September/All Details/30.09.2020/MC Bank Statement Sep-2020.xlsx
+++ b/2020/September/All Details/30.09.2020/MC Bank Statement Sep-2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sep 2020" sheetId="7" r:id="rId1"/>
@@ -32,6 +32,31 @@
     <author>LENOVO</author>
   </authors>
   <commentList>
+    <comment ref="H7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>LENOVO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tulip-2 to Mugdho Talbe Trasfer Vara
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F21" authorId="0">
       <text>
         <r>
@@ -3082,18 +3107,54 @@
     <xf numFmtId="2" fontId="39" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="43" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="43" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="43" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3104,42 +3165,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="43" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="43" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="43" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3233,7 +3258,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3245,7 +3270,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3268,14 +3293,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3312,7 +3337,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3324,7 +3349,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3347,14 +3372,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10647,7 +10672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -21838,11 +21863,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z321"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="14" topLeftCell="K35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="14" topLeftCell="K27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="S38" sqref="S38"/>
+      <selection pane="bottomRight" activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -21853,94 +21878,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="326" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="334"/>
-      <c r="C1" s="334"/>
-      <c r="D1" s="334"/>
-      <c r="E1" s="334"/>
-      <c r="F1" s="334"/>
-      <c r="G1" s="334"/>
-      <c r="H1" s="334"/>
-      <c r="I1" s="334"/>
-      <c r="J1" s="334"/>
-      <c r="K1" s="334"/>
-      <c r="L1" s="334"/>
-      <c r="M1" s="334"/>
-      <c r="N1" s="334"/>
-      <c r="O1" s="334"/>
-      <c r="P1" s="334"/>
-      <c r="Q1" s="334"/>
-      <c r="R1" s="334"/>
-      <c r="S1" s="334"/>
+      <c r="B1" s="326"/>
+      <c r="C1" s="326"/>
+      <c r="D1" s="326"/>
+      <c r="E1" s="326"/>
+      <c r="F1" s="326"/>
+      <c r="G1" s="326"/>
+      <c r="H1" s="326"/>
+      <c r="I1" s="326"/>
+      <c r="J1" s="326"/>
+      <c r="K1" s="326"/>
+      <c r="L1" s="326"/>
+      <c r="M1" s="326"/>
+      <c r="N1" s="326"/>
+      <c r="O1" s="326"/>
+      <c r="P1" s="326"/>
+      <c r="Q1" s="326"/>
+      <c r="R1" s="326"/>
+      <c r="S1" s="326"/>
     </row>
     <row r="2" spans="1:26" s="244" customFormat="1" ht="18">
-      <c r="A2" s="335" t="s">
+      <c r="A2" s="327" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="335"/>
-      <c r="C2" s="335"/>
-      <c r="D2" s="335"/>
-      <c r="E2" s="335"/>
-      <c r="F2" s="335"/>
-      <c r="G2" s="335"/>
-      <c r="H2" s="335"/>
-      <c r="I2" s="335"/>
-      <c r="J2" s="335"/>
-      <c r="K2" s="335"/>
-      <c r="L2" s="335"/>
-      <c r="M2" s="335"/>
-      <c r="N2" s="335"/>
-      <c r="O2" s="335"/>
-      <c r="P2" s="335"/>
-      <c r="Q2" s="335"/>
-      <c r="R2" s="335"/>
-      <c r="S2" s="335"/>
+      <c r="B2" s="327"/>
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="327"/>
+      <c r="G2" s="327"/>
+      <c r="H2" s="327"/>
+      <c r="I2" s="327"/>
+      <c r="J2" s="327"/>
+      <c r="K2" s="327"/>
+      <c r="L2" s="327"/>
+      <c r="M2" s="327"/>
+      <c r="N2" s="327"/>
+      <c r="O2" s="327"/>
+      <c r="P2" s="327"/>
+      <c r="Q2" s="327"/>
+      <c r="R2" s="327"/>
+      <c r="S2" s="327"/>
     </row>
     <row r="3" spans="1:26" s="244" customFormat="1">
-      <c r="A3" s="336"/>
-      <c r="B3" s="336"/>
-      <c r="C3" s="336"/>
-      <c r="D3" s="336"/>
-      <c r="E3" s="336"/>
-      <c r="F3" s="336"/>
-      <c r="G3" s="336"/>
-      <c r="H3" s="336"/>
-      <c r="I3" s="336"/>
-      <c r="J3" s="336"/>
-      <c r="K3" s="336"/>
-      <c r="L3" s="336"/>
-      <c r="M3" s="336"/>
-      <c r="N3" s="336"/>
-      <c r="O3" s="336"/>
-      <c r="P3" s="336"/>
-      <c r="Q3" s="336"/>
-      <c r="R3" s="336"/>
-      <c r="S3" s="336"/>
+      <c r="A3" s="328"/>
+      <c r="B3" s="328"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328"/>
+      <c r="F3" s="328"/>
+      <c r="G3" s="328"/>
+      <c r="H3" s="328"/>
+      <c r="I3" s="328"/>
+      <c r="J3" s="328"/>
+      <c r="K3" s="328"/>
+      <c r="L3" s="328"/>
+      <c r="M3" s="328"/>
+      <c r="N3" s="328"/>
+      <c r="O3" s="328"/>
+      <c r="P3" s="328"/>
+      <c r="Q3" s="328"/>
+      <c r="R3" s="328"/>
+      <c r="S3" s="328"/>
     </row>
     <row r="4" spans="1:26" s="245" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A4" s="337" t="s">
+      <c r="A4" s="329" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="338"/>
-      <c r="C4" s="338"/>
-      <c r="D4" s="338"/>
-      <c r="E4" s="338"/>
-      <c r="F4" s="338"/>
-      <c r="G4" s="338"/>
-      <c r="H4" s="338"/>
-      <c r="I4" s="338"/>
-      <c r="J4" s="338"/>
-      <c r="K4" s="338"/>
-      <c r="L4" s="338"/>
-      <c r="M4" s="338"/>
-      <c r="N4" s="338"/>
-      <c r="O4" s="338"/>
-      <c r="P4" s="338"/>
-      <c r="Q4" s="338"/>
-      <c r="R4" s="338"/>
-      <c r="S4" s="339"/>
+      <c r="B4" s="330"/>
+      <c r="C4" s="330"/>
+      <c r="D4" s="330"/>
+      <c r="E4" s="330"/>
+      <c r="F4" s="330"/>
+      <c r="G4" s="330"/>
+      <c r="H4" s="330"/>
+      <c r="I4" s="330"/>
+      <c r="J4" s="330"/>
+      <c r="K4" s="330"/>
+      <c r="L4" s="330"/>
+      <c r="M4" s="330"/>
+      <c r="N4" s="330"/>
+      <c r="O4" s="330"/>
+      <c r="P4" s="330"/>
+      <c r="Q4" s="330"/>
+      <c r="R4" s="330"/>
+      <c r="S4" s="331"/>
       <c r="U4" s="126"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
@@ -21949,58 +21974,58 @@
       <c r="Z4" s="29"/>
     </row>
     <row r="5" spans="1:26" s="247" customFormat="1">
-      <c r="A5" s="340" t="s">
+      <c r="A5" s="332" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="342" t="s">
+      <c r="B5" s="334" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="328" t="s">
+      <c r="C5" s="336" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="328" t="s">
+      <c r="D5" s="336" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="328" t="s">
+      <c r="E5" s="336" t="s">
         <v>166</v>
       </c>
-      <c r="F5" s="328" t="s">
+      <c r="F5" s="336" t="s">
         <v>167</v>
       </c>
-      <c r="G5" s="328" t="s">
+      <c r="G5" s="336" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="328" t="s">
+      <c r="H5" s="336" t="s">
         <v>169</v>
       </c>
-      <c r="I5" s="328" t="s">
+      <c r="I5" s="336" t="s">
         <v>170</v>
       </c>
-      <c r="J5" s="328" t="s">
+      <c r="J5" s="336" t="s">
         <v>171</v>
       </c>
-      <c r="K5" s="328" t="s">
+      <c r="K5" s="336" t="s">
         <v>172</v>
       </c>
-      <c r="L5" s="328" t="s">
+      <c r="L5" s="336" t="s">
         <v>173</v>
       </c>
-      <c r="M5" s="328" t="s">
+      <c r="M5" s="336" t="s">
         <v>174</v>
       </c>
-      <c r="N5" s="328" t="s">
+      <c r="N5" s="336" t="s">
         <v>175</v>
       </c>
-      <c r="O5" s="330" t="s">
+      <c r="O5" s="342" t="s">
         <v>176</v>
       </c>
-      <c r="P5" s="332" t="s">
+      <c r="P5" s="344" t="s">
         <v>177</v>
       </c>
-      <c r="Q5" s="326" t="s">
+      <c r="Q5" s="340" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="344" t="s">
+      <c r="R5" s="338" t="s">
         <v>178</v>
       </c>
       <c r="S5" s="246" t="s">
@@ -22013,24 +22038,24 @@
       <c r="Y5" s="249"/>
     </row>
     <row r="6" spans="1:26" s="247" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A6" s="341"/>
-      <c r="B6" s="343"/>
-      <c r="C6" s="329"/>
-      <c r="D6" s="329"/>
-      <c r="E6" s="329"/>
-      <c r="F6" s="329"/>
-      <c r="G6" s="329"/>
-      <c r="H6" s="329"/>
-      <c r="I6" s="329"/>
-      <c r="J6" s="329"/>
-      <c r="K6" s="329"/>
-      <c r="L6" s="329"/>
-      <c r="M6" s="329"/>
-      <c r="N6" s="329"/>
-      <c r="O6" s="331"/>
-      <c r="P6" s="333"/>
-      <c r="Q6" s="327"/>
-      <c r="R6" s="345"/>
+      <c r="A6" s="333"/>
+      <c r="B6" s="335"/>
+      <c r="C6" s="337"/>
+      <c r="D6" s="337"/>
+      <c r="E6" s="337"/>
+      <c r="F6" s="337"/>
+      <c r="G6" s="337"/>
+      <c r="H6" s="337"/>
+      <c r="I6" s="337"/>
+      <c r="J6" s="337"/>
+      <c r="K6" s="337"/>
+      <c r="L6" s="337"/>
+      <c r="M6" s="337"/>
+      <c r="N6" s="337"/>
+      <c r="O6" s="343"/>
+      <c r="P6" s="345"/>
+      <c r="Q6" s="341"/>
+      <c r="R6" s="339"/>
       <c r="S6" s="251" t="s">
         <v>179</v>
       </c>
@@ -22163,7 +22188,7 @@
       <c r="Q9" s="264"/>
       <c r="R9" s="266"/>
       <c r="S9" s="260">
-        <f>SUM(B9:R9)</f>
+        <f t="shared" si="0"/>
         <v>3840</v>
       </c>
       <c r="T9" s="261"/>
@@ -23316,7 +23341,10 @@
         <f t="shared" si="1"/>
         <v>1475</v>
       </c>
-      <c r="G38" s="282"/>
+      <c r="G38" s="282">
+        <f>SUM(G7:G37)</f>
+        <v>5410</v>
+      </c>
       <c r="H38" s="282">
         <f t="shared" si="1"/>
         <v>2190</v>
@@ -25368,6 +25396,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -25384,12 +25418,6 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/2020/September/All Details/30.09.2020/MC Bank Statement Sep-2020.xlsx
+++ b/2020/September/All Details/30.09.2020/MC Bank Statement Sep-2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sep 2020" sheetId="7" r:id="rId1"/>
@@ -3107,6 +3107,30 @@
     <xf numFmtId="2" fontId="39" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3137,34 +3161,10 @@
     <xf numFmtId="1" fontId="39" fillId="35" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3258,7 +3258,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3270,7 +3270,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3293,14 +3293,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3337,7 +3337,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3349,7 +3349,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3372,14 +3372,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3734,7 +3734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -4964,8 +4964,8 @@
   </sheetPr>
   <dimension ref="A1:AC222"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -21863,7 +21863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z321"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="14" topLeftCell="K27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
@@ -21878,94 +21878,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="334" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="326"/>
-      <c r="C1" s="326"/>
-      <c r="D1" s="326"/>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
-      <c r="G1" s="326"/>
-      <c r="H1" s="326"/>
-      <c r="I1" s="326"/>
-      <c r="J1" s="326"/>
-      <c r="K1" s="326"/>
-      <c r="L1" s="326"/>
-      <c r="M1" s="326"/>
-      <c r="N1" s="326"/>
-      <c r="O1" s="326"/>
-      <c r="P1" s="326"/>
-      <c r="Q1" s="326"/>
-      <c r="R1" s="326"/>
-      <c r="S1" s="326"/>
+      <c r="B1" s="334"/>
+      <c r="C1" s="334"/>
+      <c r="D1" s="334"/>
+      <c r="E1" s="334"/>
+      <c r="F1" s="334"/>
+      <c r="G1" s="334"/>
+      <c r="H1" s="334"/>
+      <c r="I1" s="334"/>
+      <c r="J1" s="334"/>
+      <c r="K1" s="334"/>
+      <c r="L1" s="334"/>
+      <c r="M1" s="334"/>
+      <c r="N1" s="334"/>
+      <c r="O1" s="334"/>
+      <c r="P1" s="334"/>
+      <c r="Q1" s="334"/>
+      <c r="R1" s="334"/>
+      <c r="S1" s="334"/>
     </row>
     <row r="2" spans="1:26" s="244" customFormat="1" ht="18">
-      <c r="A2" s="327" t="s">
+      <c r="A2" s="335" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="327"/>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="327"/>
-      <c r="I2" s="327"/>
-      <c r="J2" s="327"/>
-      <c r="K2" s="327"/>
-      <c r="L2" s="327"/>
-      <c r="M2" s="327"/>
-      <c r="N2" s="327"/>
-      <c r="O2" s="327"/>
-      <c r="P2" s="327"/>
-      <c r="Q2" s="327"/>
-      <c r="R2" s="327"/>
-      <c r="S2" s="327"/>
+      <c r="B2" s="335"/>
+      <c r="C2" s="335"/>
+      <c r="D2" s="335"/>
+      <c r="E2" s="335"/>
+      <c r="F2" s="335"/>
+      <c r="G2" s="335"/>
+      <c r="H2" s="335"/>
+      <c r="I2" s="335"/>
+      <c r="J2" s="335"/>
+      <c r="K2" s="335"/>
+      <c r="L2" s="335"/>
+      <c r="M2" s="335"/>
+      <c r="N2" s="335"/>
+      <c r="O2" s="335"/>
+      <c r="P2" s="335"/>
+      <c r="Q2" s="335"/>
+      <c r="R2" s="335"/>
+      <c r="S2" s="335"/>
     </row>
     <row r="3" spans="1:26" s="244" customFormat="1">
-      <c r="A3" s="328"/>
-      <c r="B3" s="328"/>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="328"/>
-      <c r="F3" s="328"/>
-      <c r="G3" s="328"/>
-      <c r="H3" s="328"/>
-      <c r="I3" s="328"/>
-      <c r="J3" s="328"/>
-      <c r="K3" s="328"/>
-      <c r="L3" s="328"/>
-      <c r="M3" s="328"/>
-      <c r="N3" s="328"/>
-      <c r="O3" s="328"/>
-      <c r="P3" s="328"/>
-      <c r="Q3" s="328"/>
-      <c r="R3" s="328"/>
-      <c r="S3" s="328"/>
+      <c r="A3" s="336"/>
+      <c r="B3" s="336"/>
+      <c r="C3" s="336"/>
+      <c r="D3" s="336"/>
+      <c r="E3" s="336"/>
+      <c r="F3" s="336"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="336"/>
+      <c r="K3" s="336"/>
+      <c r="L3" s="336"/>
+      <c r="M3" s="336"/>
+      <c r="N3" s="336"/>
+      <c r="O3" s="336"/>
+      <c r="P3" s="336"/>
+      <c r="Q3" s="336"/>
+      <c r="R3" s="336"/>
+      <c r="S3" s="336"/>
     </row>
     <row r="4" spans="1:26" s="245" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A4" s="329" t="s">
+      <c r="A4" s="337" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="330"/>
-      <c r="C4" s="330"/>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
-      <c r="H4" s="330"/>
-      <c r="I4" s="330"/>
-      <c r="J4" s="330"/>
-      <c r="K4" s="330"/>
-      <c r="L4" s="330"/>
-      <c r="M4" s="330"/>
-      <c r="N4" s="330"/>
-      <c r="O4" s="330"/>
-      <c r="P4" s="330"/>
-      <c r="Q4" s="330"/>
-      <c r="R4" s="330"/>
-      <c r="S4" s="331"/>
+      <c r="B4" s="338"/>
+      <c r="C4" s="338"/>
+      <c r="D4" s="338"/>
+      <c r="E4" s="338"/>
+      <c r="F4" s="338"/>
+      <c r="G4" s="338"/>
+      <c r="H4" s="338"/>
+      <c r="I4" s="338"/>
+      <c r="J4" s="338"/>
+      <c r="K4" s="338"/>
+      <c r="L4" s="338"/>
+      <c r="M4" s="338"/>
+      <c r="N4" s="338"/>
+      <c r="O4" s="338"/>
+      <c r="P4" s="338"/>
+      <c r="Q4" s="338"/>
+      <c r="R4" s="338"/>
+      <c r="S4" s="339"/>
       <c r="U4" s="126"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
@@ -21974,58 +21974,58 @@
       <c r="Z4" s="29"/>
     </row>
     <row r="5" spans="1:26" s="247" customFormat="1">
-      <c r="A5" s="332" t="s">
+      <c r="A5" s="340" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="334" t="s">
+      <c r="B5" s="342" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="336" t="s">
+      <c r="C5" s="328" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="336" t="s">
+      <c r="D5" s="328" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="336" t="s">
+      <c r="E5" s="328" t="s">
         <v>166</v>
       </c>
-      <c r="F5" s="336" t="s">
+      <c r="F5" s="328" t="s">
         <v>167</v>
       </c>
-      <c r="G5" s="336" t="s">
+      <c r="G5" s="328" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="336" t="s">
+      <c r="H5" s="328" t="s">
         <v>169</v>
       </c>
-      <c r="I5" s="336" t="s">
+      <c r="I5" s="328" t="s">
         <v>170</v>
       </c>
-      <c r="J5" s="336" t="s">
+      <c r="J5" s="328" t="s">
         <v>171</v>
       </c>
-      <c r="K5" s="336" t="s">
+      <c r="K5" s="328" t="s">
         <v>172</v>
       </c>
-      <c r="L5" s="336" t="s">
+      <c r="L5" s="328" t="s">
         <v>173</v>
       </c>
-      <c r="M5" s="336" t="s">
+      <c r="M5" s="328" t="s">
         <v>174</v>
       </c>
-      <c r="N5" s="336" t="s">
+      <c r="N5" s="328" t="s">
         <v>175</v>
       </c>
-      <c r="O5" s="342" t="s">
+      <c r="O5" s="330" t="s">
         <v>176</v>
       </c>
-      <c r="P5" s="344" t="s">
+      <c r="P5" s="332" t="s">
         <v>177</v>
       </c>
-      <c r="Q5" s="340" t="s">
+      <c r="Q5" s="326" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="338" t="s">
+      <c r="R5" s="344" t="s">
         <v>178</v>
       </c>
       <c r="S5" s="246" t="s">
@@ -22038,24 +22038,24 @@
       <c r="Y5" s="249"/>
     </row>
     <row r="6" spans="1:26" s="247" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A6" s="333"/>
-      <c r="B6" s="335"/>
-      <c r="C6" s="337"/>
-      <c r="D6" s="337"/>
-      <c r="E6" s="337"/>
-      <c r="F6" s="337"/>
-      <c r="G6" s="337"/>
-      <c r="H6" s="337"/>
-      <c r="I6" s="337"/>
-      <c r="J6" s="337"/>
-      <c r="K6" s="337"/>
-      <c r="L6" s="337"/>
-      <c r="M6" s="337"/>
-      <c r="N6" s="337"/>
-      <c r="O6" s="343"/>
-      <c r="P6" s="345"/>
-      <c r="Q6" s="341"/>
-      <c r="R6" s="339"/>
+      <c r="A6" s="341"/>
+      <c r="B6" s="343"/>
+      <c r="C6" s="329"/>
+      <c r="D6" s="329"/>
+      <c r="E6" s="329"/>
+      <c r="F6" s="329"/>
+      <c r="G6" s="329"/>
+      <c r="H6" s="329"/>
+      <c r="I6" s="329"/>
+      <c r="J6" s="329"/>
+      <c r="K6" s="329"/>
+      <c r="L6" s="329"/>
+      <c r="M6" s="329"/>
+      <c r="N6" s="329"/>
+      <c r="O6" s="331"/>
+      <c r="P6" s="333"/>
+      <c r="Q6" s="327"/>
+      <c r="R6" s="345"/>
       <c r="S6" s="251" t="s">
         <v>179</v>
       </c>
@@ -25396,12 +25396,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -25418,6 +25412,12 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
